--- a/数据整理/stocks/A股/上证主板/603859-能科科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603859-能科科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,13 +939,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603859-能科科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603859-能科科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.72</v>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1219,13 +1262,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5354</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603859-能科科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603859-能科科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.11</v>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.72</v>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4908</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1520,13 +1585,515 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4908</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3618</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603859-能科科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603859-能科科技.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,433 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>25.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1063</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>25.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1063</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>26.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0957</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>29.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0854</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>25.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0432</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>26.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>970015</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万宏源红利成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>73.19</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0243</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003659</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>山西证券策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.32</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -890,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001672</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国寿安保智慧生活股票</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>12.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.77</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2155</t>
+          <t>0.5584</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -979,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.83</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1919</t>
+          <t>0.4908</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1017,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004818</t>
+          <t>013613</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
+          <t>宝盈国家安全沪港深股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1190</t>
+          <t>0.4908</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1055,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0885</t>
+          <t>0.3618</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1093,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>006904</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>泰康产业升级混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>65.08</t>
+          <t>89.31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0674</t>
+          <t>0.1743</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1131,36 +795,302 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>004819</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>国寿安保目标策略灵活配置混合C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>28.73</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,32 +1439,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>001672</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>国寿安保智慧生活股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.06</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>85.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5584</t>
+          <t>0.2155</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1547,36 +1477,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>85.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4908</t>
+          <t>0.1919</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1585,36 +1515,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013613</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈国家安全沪港深股票C</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4908</t>
+          <t>0.1190</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1623,36 +1553,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3618</t>
+          <t>0.0885</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1661,36 +1591,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006904</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康产业升级混合A</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>65.08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1743</t>
+          <t>0.0674</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1699,302 +1629,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001672</t>
+          <t>004819</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国寿安保智慧生活股票</t>
+          <t>国寿安保目标策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1243</t>
+          <t>0.0329</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>44.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0897</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012815</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宝盈新兴产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0778</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006905</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰康产业升级混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.31</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0772</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012771</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0611</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519097</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>新华中小市值优选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>970015</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>申万宏源红利成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>70.20</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>44.71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2008,96 +1672,432 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.56</v>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>2.11</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.55</v>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603859-能科科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603859-能科科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2.56</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.11</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.72</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.55</v>
       </c>
     </row>
@@ -549,6 +566,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1091,290 +1278,6 @@
       </c>
       <c r="H14" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001128</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.94</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7797</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001487</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5566</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5354</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001672</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国寿安保智慧生活股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1153</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1060</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1439,36 +1342,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001672</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国寿安保智慧生活股票</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.77</t>
+          <t>86.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2155</t>
+          <t>0.7797</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1487,26 +1390,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>17.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.83</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1919</t>
+          <t>0.5566</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1515,36 +1418,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004818</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>13.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>90.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1190</t>
+          <t>0.5354</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1553,36 +1456,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>001672</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>国寿安保智慧生活股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>85.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0885</t>
+          <t>0.1153</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1591,36 +1494,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>65.08</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0674</t>
+          <t>0.1060</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1639,26 +1542,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1667,6 +1570,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603859-能科科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603859-能科科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.56</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>2.11</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.72</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.55</v>
       </c>
     </row>
@@ -566,6 +583,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +1036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1278,290 +1579,6 @@
       </c>
       <c r="H14" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001128</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.94</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7797</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001487</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5566</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5354</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001672</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国寿安保智慧生活股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1153</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1060</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1626,36 +1643,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001672</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国寿安保智慧生活股票</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.77</t>
+          <t>86.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2155</t>
+          <t>0.7797</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1674,26 +1691,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>17.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.83</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1919</t>
+          <t>0.5566</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1702,36 +1719,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004818</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>13.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>90.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1190</t>
+          <t>0.5354</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1740,36 +1757,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>001672</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>国寿安保智慧生活股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>85.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0885</t>
+          <t>0.1153</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1778,36 +1795,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>65.08</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0674</t>
+          <t>0.1060</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1826,26 +1843,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1854,6 +1871,290 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
